--- a/semana3/00 - Recursos/03 - Valor Actual Neto Flujo de Fondos Libres.xlsx
+++ b/semana3/00 - Recursos/03 - Valor Actual Neto Flujo de Fondos Libres.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITEC\FUSIONES Y ADQUISICIONES\MATERIAL ACADEMICO Y OTROS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megam\Unitec\masterFusionesAdquisiciones\semana3\00 - Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B5C43-F95F-4DAA-ABED-25F6A580E923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA21994C-FE90-4082-97F8-45160039562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="4290" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VNA FLUJO FONDOS LIBRE" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="VNA FLUJO FONDOS LIBRE (TAREA)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Rend activo</t>
   </si>
@@ -58,6 +59,15 @@
   </si>
   <si>
     <t>Valor acciones comunes</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>Vc</t>
   </si>
 </sst>
 </file>
@@ -65,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -211,9 +221,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,7 +237,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -236,16 +246,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -584,11 +599,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -598,18 +613,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -762,12 +777,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543CD7B3-2CA1-4E0C-963D-9747328C726A}">
+  <dimension ref="B2:K25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="13">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="4">
+        <v>330000</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="21">
+        <v>420000</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="4">
+        <v>370000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="21">
+        <f>(G9*(1+G8))/(D5-G8)</f>
+        <v>3059999.9999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="13">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="4">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D12" s="4">
+        <f>G10+G9</f>
+        <v>3479999.9999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>2026</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="13">
+        <v>2027</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>2028</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="13">
+        <v>2030</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="19" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f>NPV(D5,D8,D9,D10,D11,D12,D13,D14,D15,D16,D17)</f>
+        <v>2613174.6081119105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="17">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="17">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="16">
+        <f>+D20-D22-D23</f>
+        <v>713174.60811191052</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
